--- a/data/trans_orig/P6714-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>4743</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1861</v>
+        <v>1806</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10213</v>
+        <v>10928</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03739390848789119</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01467312666796052</v>
+        <v>0.01423753648022503</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08051525394975359</v>
+        <v>0.08615332031276476</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -763,19 +763,19 @@
         <v>3478</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9233</v>
+        <v>9281</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04018510870173921</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01290706845756824</v>
+        <v>0.01277524480151193</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1066812799576726</v>
+        <v>0.1072379623673604</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -784,19 +784,19 @@
         <v>8221</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3510</v>
+        <v>3964</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14968</v>
+        <v>15531</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03852598993282158</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01644868422308318</v>
+        <v>0.01857634402911956</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07014499345095029</v>
+        <v>0.0727826686295522</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>6793</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2447</v>
+        <v>2455</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14139</v>
+        <v>14428</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05355799515024391</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01929221642122199</v>
+        <v>0.01935139200209155</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1114693837263647</v>
+        <v>0.113745896731665</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -834,19 +834,19 @@
         <v>3617</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9718</v>
+        <v>9633</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04179401714018601</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01339791142756893</v>
+        <v>0.01316907739908046</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1122842140198846</v>
+        <v>0.1113012806572295</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -855,19 +855,19 @@
         <v>10410</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4784</v>
+        <v>4872</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20044</v>
+        <v>20014</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0487866494195858</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02241970788744146</v>
+        <v>0.02283092572207708</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0939321854415264</v>
+        <v>0.09379354841211594</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>18890</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11054</v>
+        <v>11551</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29067</v>
+        <v>29716</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1489246324517902</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08714917680653213</v>
+        <v>0.09106621096167668</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2291609423223697</v>
+        <v>0.234277200102204</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -905,19 +905,19 @@
         <v>7957</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3331</v>
+        <v>3262</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14814</v>
+        <v>14967</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09194091641037686</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03849241020769151</v>
+        <v>0.03769287417638289</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1711638459734335</v>
+        <v>0.1729377012447573</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -926,19 +926,19 @@
         <v>26847</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17983</v>
+        <v>17526</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40065</v>
+        <v>39106</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1258126366610149</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08427528678741431</v>
+        <v>0.08213137154235046</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1877546413754446</v>
+        <v>0.1832611210585585</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>11044</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6210</v>
+        <v>5620</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19017</v>
+        <v>19499</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0870701884119533</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04896014318198764</v>
+        <v>0.04430716973765163</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1499282687765504</v>
+        <v>0.1537285746188491</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -976,19 +976,19 @@
         <v>9313</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4087</v>
+        <v>4285</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15905</v>
+        <v>16007</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1076070127528366</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0472222127382435</v>
+        <v>0.04951499873496985</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.183768310661598</v>
+        <v>0.1849442909360771</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -997,19 +997,19 @@
         <v>20357</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12898</v>
+        <v>13351</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31159</v>
+        <v>29618</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09539970832914216</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06044252268797993</v>
+        <v>0.0625675841178616</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1460225673921461</v>
+        <v>0.1387996410151395</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>85370</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>72938</v>
+        <v>73148</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>95231</v>
+        <v>95403</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6730532754981213</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5750373521509756</v>
+        <v>0.5766955820259594</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7507993505095707</v>
+        <v>0.7521485607703249</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>55</v>
@@ -1047,19 +1047,19 @@
         <v>62182</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>53023</v>
+        <v>51809</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>70065</v>
+        <v>70050</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7184729449948614</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6126446882807499</v>
+        <v>0.5986116454875866</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8095494520248128</v>
+        <v>0.80937526245804</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>140</v>
@@ -1068,19 +1068,19 @@
         <v>147552</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>132563</v>
+        <v>133665</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>161417</v>
+        <v>160767</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6914750156574355</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6212282909031925</v>
+        <v>0.6263960106046589</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.756447845279665</v>
+        <v>0.7534020044635963</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>4738</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1823</v>
+        <v>1834</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10388</v>
+        <v>9941</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02750971568368485</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01058295444463757</v>
+        <v>0.01064595996157479</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06031278234739103</v>
+        <v>0.05771839938033786</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1193,19 +1193,19 @@
         <v>3066</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>935</v>
+        <v>945</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7977</v>
+        <v>7988</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0249901549180606</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007624862646628974</v>
+        <v>0.007702656146506937</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0650203350972313</v>
+        <v>0.06510837538123297</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1214,19 +1214,19 @@
         <v>7804</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3706</v>
+        <v>3783</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14084</v>
+        <v>14637</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02646159330820044</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01256517422555051</v>
+        <v>0.01282648012697898</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04775542654505321</v>
+        <v>0.04963032418434129</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>4034</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1028</v>
+        <v>985</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10024</v>
+        <v>9361</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02341994328660432</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005966324099136084</v>
+        <v>0.005721064100158792</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05820069874346234</v>
+        <v>0.05434792224233625</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11732</v>
+        <v>10121</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02333655515874528</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09562418567345328</v>
+        <v>0.08249312571984803</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -1285,19 +1285,19 @@
         <v>6897</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3000</v>
+        <v>2959</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15100</v>
+        <v>14647</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02338525431864956</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01017314580862472</v>
+        <v>0.01003134218981688</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05119925437491155</v>
+        <v>0.04966284645557623</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>12449</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6681</v>
+        <v>6674</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20853</v>
+        <v>21195</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07227701206281965</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03878962611368534</v>
+        <v>0.0387485838968923</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1210666273850715</v>
+        <v>0.1230525676913177</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1335,19 +1335,19 @@
         <v>8095</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3295</v>
+        <v>3852</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15905</v>
+        <v>16282</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06598343770852585</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02685465617442269</v>
+        <v>0.0313958682038695</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1296371812392602</v>
+        <v>0.1327087648480613</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>19</v>
@@ -1356,19 +1356,19 @@
         <v>20544</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12710</v>
+        <v>12203</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31568</v>
+        <v>30462</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06965892235745949</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04309579840885876</v>
+        <v>0.04137692144652662</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1070359902373577</v>
+        <v>0.1032870314045177</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>17811</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10466</v>
+        <v>10339</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26563</v>
+        <v>27813</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.103410543602283</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06076336047106057</v>
+        <v>0.06002555063913831</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1542200789147851</v>
+        <v>0.1614804729030859</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1406,19 +1406,19 @@
         <v>21122</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13761</v>
+        <v>12629</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32899</v>
+        <v>31388</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1721599096554706</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1121643172251823</v>
+        <v>0.1029344132126864</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2681536905389493</v>
+        <v>0.2558348268180669</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -1427,19 +1427,19 @@
         <v>38933</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27505</v>
+        <v>28503</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51571</v>
+        <v>52045</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.132009873233002</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09326007053177678</v>
+        <v>0.09664516364778285</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1748611253997358</v>
+        <v>0.1764683316330996</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>133207</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>121383</v>
+        <v>120752</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>143046</v>
+        <v>144188</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7733827853646082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7047325011160305</v>
+        <v>0.7010673347851805</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8305011943454546</v>
+        <v>0.8371341358141864</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>80</v>
@@ -1477,19 +1477,19 @@
         <v>87542</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74165</v>
+        <v>77060</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>96633</v>
+        <v>98134</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7135299425591977</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6045023030203057</v>
+        <v>0.6281006399992444</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7876323188347433</v>
+        <v>0.7998681313816316</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>203</v>
@@ -1498,19 +1498,19 @@
         <v>220749</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>204902</v>
+        <v>204711</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>236584</v>
+        <v>234995</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7484843567826885</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6947510000065795</v>
+        <v>0.6941039784850612</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8021770323109919</v>
+        <v>0.7967864575708091</v>
       </c>
     </row>
     <row r="15">
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10380</v>
+        <v>9613</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02018402165956475</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07248719522194517</v>
+        <v>0.06713286899842581</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5053</v>
+        <v>4867</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01212711012201394</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0621525590071837</v>
+        <v>0.05986440634615464</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1644,19 +1644,19 @@
         <v>3876</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11531</v>
+        <v>11515</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01726628603544949</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004124399190182164</v>
+        <v>0.004163216768924998</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05136142756830282</v>
+        <v>0.05129027027373688</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>3742</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8451</v>
+        <v>9195</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02613109729319804</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006527969130343819</v>
+        <v>0.006552682927067543</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05901742915661856</v>
+        <v>0.06421157626217527</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1694,19 +1694,19 @@
         <v>2932</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>950</v>
+        <v>924</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7850</v>
+        <v>7811</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03606059511862413</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01168223574952547</v>
+        <v>0.01135949271735686</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09655225179212429</v>
+        <v>0.09606992554705798</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -1715,19 +1715,19 @@
         <v>6674</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2862</v>
+        <v>2871</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12526</v>
+        <v>13417</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02972697263572758</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0127466696069709</v>
+        <v>0.01278811812982732</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05579632875637735</v>
+        <v>0.0597625860506602</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>16990</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10714</v>
+        <v>10280</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25973</v>
+        <v>25581</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.118642847322135</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07481511526360068</v>
+        <v>0.07178620904221121</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1813761281866713</v>
+        <v>0.1786377530413825</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>18</v>
@@ -1765,19 +1765,19 @@
         <v>19116</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12102</v>
+        <v>11948</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27485</v>
+        <v>27615</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2351213200787488</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1488519950571663</v>
+        <v>0.1469579858907107</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.338063338111173</v>
+        <v>0.3396587073002595</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>36</v>
@@ -1786,19 +1786,19 @@
         <v>36105</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>25798</v>
+        <v>25435</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>47716</v>
+        <v>48052</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1608244435604153</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1149105791227572</v>
+        <v>0.1132938577725577</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2125435707220746</v>
+        <v>0.2140377525597068</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>39744</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29604</v>
+        <v>30364</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50952</v>
+        <v>51275</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.277536805369123</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2067318423019974</v>
+        <v>0.2120408958918074</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3558109383579774</v>
+        <v>0.3580647180549723</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -1836,19 +1836,19 @@
         <v>19034</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11593</v>
+        <v>12017</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27921</v>
+        <v>27229</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2341222385515518</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1425959891448276</v>
+        <v>0.1478046507783337</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3434260873635289</v>
+        <v>0.3349214060447351</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>57</v>
@@ -1857,19 +1857,19 @@
         <v>58778</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45988</v>
+        <v>44466</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72814</v>
+        <v>72859</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2618146235357022</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2048452136809896</v>
+        <v>0.1980631355401246</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3243351039755743</v>
+        <v>0.3245352171109108</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>79835</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>67901</v>
+        <v>68384</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>91190</v>
+        <v>91148</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5575052283559793</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4741661501161624</v>
+        <v>0.4775408639250838</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6367960955488222</v>
+        <v>0.6365037478685499</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -1907,19 +1907,19 @@
         <v>39233</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>29447</v>
+        <v>30221</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48107</v>
+        <v>47832</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4825687361290613</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3622003142046403</v>
+        <v>0.3717200628008285</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5917111550791332</v>
+        <v>0.5883305308874596</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>119</v>
@@ -1928,19 +1928,19 @@
         <v>119069</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>103976</v>
+        <v>104062</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>133745</v>
+        <v>134462</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5303676742327054</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4631387062939942</v>
+        <v>0.4635239559061028</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5957393823660361</v>
+        <v>0.598935725793567</v>
       </c>
     </row>
     <row r="21">
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5143</v>
+        <v>4379</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007115214730214913</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03604404977080851</v>
+        <v>0.03068613660328072</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5178</v>
+        <v>5099</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004173998794724396</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02128837401843471</v>
+        <v>0.02096240842807372</v>
       </c>
     </row>
     <row r="23">
@@ -2095,19 +2095,19 @@
         <v>4345</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1072</v>
+        <v>1048</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12851</v>
+        <v>12106</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03044936758832343</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007511413232480531</v>
+        <v>0.007346011116709553</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09006280868372998</v>
+        <v>0.08484154669181855</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -2116,19 +2116,19 @@
         <v>4114</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1063</v>
+        <v>1082</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9565</v>
+        <v>10426</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04091972586572681</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01057181740743825</v>
+        <v>0.01076156895984269</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09512731491149912</v>
+        <v>0.1036899770945382</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -2137,19 +2137,19 @@
         <v>8459</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3425</v>
+        <v>3703</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>16503</v>
+        <v>17627</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03477749903388891</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01408091256065533</v>
+        <v>0.01522295930869677</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06784751101638636</v>
+        <v>0.07246897465722939</v>
       </c>
     </row>
     <row r="24">
@@ -2166,19 +2166,19 @@
         <v>18210</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10674</v>
+        <v>10319</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27134</v>
+        <v>27191</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1276196621111347</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07480426664566733</v>
+        <v>0.07232037400484155</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1901639243411692</v>
+        <v>0.1905618382809146</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>20</v>
@@ -2187,19 +2187,19 @@
         <v>21406</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14362</v>
+        <v>13929</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32150</v>
+        <v>30871</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2128972520784023</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1428439426024755</v>
+        <v>0.1385378577673566</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3197495632611103</v>
+        <v>0.3070343251585333</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>37</v>
@@ -2208,19 +2208,19 @@
         <v>39616</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>27857</v>
+        <v>27868</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>52737</v>
+        <v>53244</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1628708549510137</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1145258998676453</v>
+        <v>0.1145699670161977</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2168131976083692</v>
+        <v>0.2189003730872839</v>
       </c>
     </row>
     <row r="25">
@@ -2237,19 +2237,19 @@
         <v>36806</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27517</v>
+        <v>27201</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48484</v>
+        <v>48051</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2579454541419011</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1928447673776917</v>
+        <v>0.190631364094092</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3397872475805396</v>
+        <v>0.3367527929692172</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -2258,19 +2258,19 @@
         <v>20702</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12290</v>
+        <v>13758</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28910</v>
+        <v>29776</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2058976586384328</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1222327939065879</v>
+        <v>0.1368316952029156</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2875282530036597</v>
+        <v>0.2961465339949083</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>57</v>
@@ -2279,19 +2279,19 @@
         <v>57508</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>45877</v>
+        <v>45229</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>72082</v>
+        <v>71150</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2364304596763259</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1886127281491852</v>
+        <v>0.1859479509932434</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2963476117825887</v>
+        <v>0.2925138711766555</v>
       </c>
     </row>
     <row r="26">
@@ -2308,19 +2308,19 @@
         <v>82313</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>70337</v>
+        <v>68407</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>93426</v>
+        <v>93369</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5768703014284259</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4929395618314155</v>
+        <v>0.4794117500050531</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6547558468107098</v>
+        <v>0.6543511214100657</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>50</v>
@@ -2329,19 +2329,19 @@
         <v>54324</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44065</v>
+        <v>44123</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>64878</v>
+        <v>65149</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.540285363417438</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4382582017495661</v>
+        <v>0.4388372173004871</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6452574485240814</v>
+        <v>0.6479524250395434</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>123</v>
@@ -2350,19 +2350,19 @@
         <v>136637</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>120410</v>
+        <v>120207</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>151712</v>
+        <v>153071</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5617471875440471</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4950330895087607</v>
+        <v>0.4941986169390369</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6237229353014112</v>
+        <v>0.6293085882120432</v>
       </c>
     </row>
     <row r="27">
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6681</v>
+        <v>8221</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02654370755101584</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08116587614156903</v>
+        <v>0.09987050306496029</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5763</v>
+        <v>5977</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03391817499478397</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1052749211652564</v>
+        <v>0.1091843371758822</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -2496,19 +2496,19 @@
         <v>4042</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1028</v>
+        <v>1054</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9271</v>
+        <v>10349</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02948920837914103</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007503990580802668</v>
+        <v>0.007692025631773411</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06764131854204231</v>
+        <v>0.07550576288955634</v>
       </c>
     </row>
     <row r="29">
@@ -2538,19 +2538,19 @@
         <v>4018</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1020</v>
+        <v>1004</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10644</v>
+        <v>10353</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07339659934726275</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01863310130863707</v>
+        <v>0.01833906486298337</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1944404728095565</v>
+        <v>0.1891276202213621</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -2559,19 +2559,19 @@
         <v>4018</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>999</v>
+        <v>1024</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10790</v>
+        <v>11063</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02931598055146731</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007287355438386293</v>
+        <v>0.007470364245744804</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07872551007314464</v>
+        <v>0.08072159697660351</v>
       </c>
     </row>
     <row r="30">
@@ -2588,19 +2588,19 @@
         <v>12465</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6789</v>
+        <v>6212</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>20722</v>
+        <v>20644</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1514287666453033</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08247468722107336</v>
+        <v>0.07547225522426523</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2517414954505434</v>
+        <v>0.250797237186675</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>15</v>
@@ -2609,19 +2609,19 @@
         <v>14772</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8677</v>
+        <v>9664</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>21605</v>
+        <v>22701</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2698517236511555</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1585099712160927</v>
+        <v>0.1765278046984883</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.394669664659883</v>
+        <v>0.4146856467314404</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>26</v>
@@ -2630,19 +2630,19 @@
         <v>27237</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>18461</v>
+        <v>18930</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>37449</v>
+        <v>38362</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1987291202762006</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1346939485556375</v>
+        <v>0.1381193678528115</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2732334180993861</v>
+        <v>0.2798999774429168</v>
       </c>
     </row>
     <row r="31">
@@ -2659,19 +2659,19 @@
         <v>15614</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8314</v>
+        <v>9043</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22983</v>
+        <v>23702</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1896885218444664</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1010013054673452</v>
+        <v>0.1098643723390966</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2792151665597101</v>
+        <v>0.2879451924923241</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>11</v>
@@ -2680,19 +2680,19 @@
         <v>10738</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6108</v>
+        <v>5780</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>17649</v>
+        <v>17071</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.19615603805907</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1115736870367391</v>
+        <v>0.1055901364246818</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3223982118518218</v>
+        <v>0.3118313974918295</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>26</v>
@@ -2701,19 +2701,19 @@
         <v>26352</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>18123</v>
+        <v>17961</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>36424</v>
+        <v>37564</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1922717693143737</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1322290035859085</v>
+        <v>0.1310444545764648</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2657606409888246</v>
+        <v>0.2740775793486439</v>
       </c>
     </row>
     <row r="32">
@@ -2730,19 +2730,19 @@
         <v>52050</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>42736</v>
+        <v>43082</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>60028</v>
+        <v>60602</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6323390039592144</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5191862734854321</v>
+        <v>0.5233904147799229</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7292603559244205</v>
+        <v>0.7362344086577023</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>22</v>
@@ -2751,19 +2751,19 @@
         <v>23358</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15941</v>
+        <v>16256</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>30868</v>
+        <v>30873</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4266774639477278</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2911907535367203</v>
+        <v>0.2969502368880509</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5638729452685547</v>
+        <v>0.5639703275140391</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>69</v>
@@ -2772,19 +2772,19 @@
         <v>75408</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>62604</v>
+        <v>64229</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>86423</v>
+        <v>87490</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5501939214788173</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4567715858331244</v>
+        <v>0.4686290080808811</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6305642942496182</v>
+        <v>0.6383448054272433</v>
       </c>
     </row>
     <row r="33">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7520</v>
+        <v>7092</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01673407908470724</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06358895557554527</v>
+        <v>0.0599670483259722</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6570</v>
+        <v>8259</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04248503673014743</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1188297803613237</v>
+        <v>0.1493729289289442</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>4</v>
@@ -2965,19 +2965,19 @@
         <v>4328</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1051</v>
+        <v>1067</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>10794</v>
+        <v>10529</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02493782095645992</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.00605462650540718</v>
+        <v>0.0061475387027534</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06219388002243727</v>
+        <v>0.06066488578109522</v>
       </c>
     </row>
     <row r="36">
@@ -2994,19 +2994,19 @@
         <v>16580</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9774</v>
+        <v>10004</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>24483</v>
+        <v>24792</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1401890766276266</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08264094296732899</v>
+        <v>0.08458660659422491</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2070173109153676</v>
+        <v>0.2096274153969938</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>11</v>
@@ -3015,19 +3015,19 @@
         <v>10839</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5765</v>
+        <v>5699</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>17566</v>
+        <v>17378</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.196040377000565</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1042660439975827</v>
+        <v>0.1030655723494661</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3176990749212568</v>
+        <v>0.3142976542056909</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>28</v>
@@ -3036,19 +3036,19 @@
         <v>27419</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>18886</v>
+        <v>19234</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>38665</v>
+        <v>38988</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1579821877720754</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1088189365336323</v>
+        <v>0.1108219876235833</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2227757116871796</v>
+        <v>0.2246396665136668</v>
       </c>
     </row>
     <row r="37">
@@ -3065,19 +3065,19 @@
         <v>19953</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>12604</v>
+        <v>12692</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>29880</v>
+        <v>30507</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1687134234589296</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1065749515885089</v>
+        <v>0.107320784567069</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2526481739484254</v>
+        <v>0.2579525797660104</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>11</v>
@@ -3086,19 +3086,19 @@
         <v>10940</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6053</v>
+        <v>5865</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>17772</v>
+        <v>17595</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1978603860008647</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1094709387576133</v>
+        <v>0.1060706000245026</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3214287842093568</v>
+        <v>0.3182118147808898</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>29</v>
@@ -3107,19 +3107,19 @@
         <v>30893</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>21757</v>
+        <v>21438</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>43145</v>
+        <v>42578</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1779990648060203</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1253605248279229</v>
+        <v>0.1235209056769231</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2485905898686341</v>
+        <v>0.2453248112059757</v>
       </c>
     </row>
     <row r="38">
@@ -3136,19 +3136,19 @@
         <v>79754</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>68909</v>
+        <v>69174</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>89687</v>
+        <v>89697</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.6743634208287366</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5826618797708025</v>
+        <v>0.584904661920149</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7583524959896539</v>
+        <v>0.7584320349340599</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>28</v>
@@ -3157,19 +3157,19 @@
         <v>31163</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>23419</v>
+        <v>23613</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>38307</v>
+        <v>38603</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5636142002684229</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.423549236361553</v>
+        <v>0.4270596411002495</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6928216033170562</v>
+        <v>0.6981697395343297</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>100</v>
@@ -3178,19 +3178,19 @@
         <v>110918</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>96632</v>
+        <v>96590</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>122798</v>
+        <v>123717</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.6390809264654445</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5567726757317293</v>
+        <v>0.5565305964780417</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7075328430831819</v>
+        <v>0.712830383091425</v>
       </c>
     </row>
     <row r="39">
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6097</v>
+        <v>6966</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.007230085888016932</v>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0226724839950741</v>
+        <v>0.02590075372707255</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>5</v>
@@ -3303,19 +3303,19 @@
         <v>4967</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>10867</v>
+        <v>11101</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02726920682723095</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01037635124045403</v>
+        <v>0.01039194912308584</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.05965626391000372</v>
+        <v>0.06093981663453389</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>7</v>
@@ -3324,19 +3324,19 @@
         <v>6912</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2914</v>
+        <v>2855</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>12893</v>
+        <v>14012</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01532245393177725</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.006459528724498526</v>
+        <v>0.006328694742498446</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02858171465748896</v>
+        <v>0.03106234928490594</v>
       </c>
     </row>
     <row r="41">
@@ -3353,19 +3353,19 @@
         <v>13949</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7680</v>
+        <v>6767</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>23877</v>
+        <v>23629</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.05186889283856707</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02855862475572502</v>
+        <v>0.02516339354034202</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.08878667550164387</v>
+        <v>0.0878638828694292</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>10</v>
@@ -3374,19 +3374,19 @@
         <v>11246</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>5591</v>
+        <v>5549</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>20070</v>
+        <v>20346</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.06173261858749367</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03069434411814758</v>
+        <v>0.03046132301546588</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1101767518878944</v>
+        <v>0.1116918938499281</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>22</v>
@@ -3395,19 +3395,19 @@
         <v>25195</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>16344</v>
+        <v>15515</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>37487</v>
+        <v>37159</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.05585214635977468</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03623152733640131</v>
+        <v>0.03439449590553734</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.08310245269527362</v>
+        <v>0.08237483156148406</v>
       </c>
     </row>
     <row r="42">
@@ -3424,19 +3424,19 @@
         <v>51470</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>39100</v>
+        <v>40120</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>65567</v>
+        <v>67337</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1913860912284215</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1453889601951921</v>
+        <v>0.1491832541657076</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2438054124505009</v>
+        <v>0.2503870475192385</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>33</v>
@@ -3445,19 +3445,19 @@
         <v>36936</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>24777</v>
+        <v>26798</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>49463</v>
+        <v>48934</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.202758791295603</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1360143312223677</v>
+        <v>0.1471057539068733</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2715263906182497</v>
+        <v>0.2686226958988176</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>82</v>
@@ -3466,19 +3466,19 @@
         <v>88405</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>71733</v>
+        <v>69734</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>107954</v>
+        <v>107081</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1959787115770933</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1590193956917077</v>
+        <v>0.1545882371776914</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2393139394527521</v>
+        <v>0.2373792180223748</v>
       </c>
     </row>
     <row r="43">
@@ -3495,19 +3495,19 @@
         <v>53198</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>41293</v>
+        <v>41260</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>67486</v>
+        <v>68371</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1978133560347522</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1535462627010797</v>
+        <v>0.1534231219366194</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2509420288533366</v>
+        <v>0.2542338919448069</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>40</v>
@@ -3516,19 +3516,19 @@
         <v>41541</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>31239</v>
+        <v>31706</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>54581</v>
+        <v>54099</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2280381361821803</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1714868009266474</v>
+        <v>0.1740510756476512</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2996249806922454</v>
+        <v>0.2969793099925885</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>93</v>
@@ -3537,19 +3537,19 @@
         <v>94739</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>78809</v>
+        <v>76977</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>113384</v>
+        <v>113913</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.210018983503974</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1747064892315424</v>
+        <v>0.1706453682313991</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2513530074049837</v>
+        <v>0.2525240664909482</v>
       </c>
     </row>
     <row r="44">
@@ -3566,19 +3566,19 @@
         <v>148370</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>132127</v>
+        <v>130937</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>166629</v>
+        <v>163866</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.5517015740102423</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4913055432606507</v>
+        <v>0.4868802212816796</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6195973464177023</v>
+        <v>0.6093219875593764</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>83</v>
@@ -3587,19 +3587,19 @@
         <v>87476</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>73710</v>
+        <v>74150</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>101164</v>
+        <v>101639</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4802012471074921</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4046334727115158</v>
+        <v>0.4070501588831826</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5553453047955837</v>
+        <v>0.5579529138655609</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>218</v>
@@ -3608,19 +3608,19 @@
         <v>235845</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>212530</v>
+        <v>213274</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>257399</v>
+        <v>259516</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5228277046273807</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.4711421275549015</v>
+        <v>0.4727907386971189</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5706089741819348</v>
+        <v>0.5753020610287094</v>
       </c>
     </row>
     <row r="45">
@@ -3712,19 +3712,19 @@
         <v>5033</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1971</v>
+        <v>1944</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>11065</v>
+        <v>11105</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01397060084345724</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.005470252953847964</v>
+        <v>0.005397256535372771</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03071570987579959</v>
+        <v>0.03082693350033521</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>3</v>
@@ -3733,19 +3733,19 @@
         <v>3384</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>9123</v>
+        <v>9257</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01308525045575588</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.003951229126107693</v>
+        <v>0.003901418391596637</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03527541498290247</v>
+        <v>0.03579629387011465</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>8</v>
@@ -3754,19 +3754,19 @@
         <v>8417</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>3755</v>
+        <v>4105</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>15330</v>
+        <v>16887</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01360062047408135</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.00606708072513767</v>
+        <v>0.006633071739131893</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02477183780193072</v>
+        <v>0.02728771569244675</v>
       </c>
     </row>
     <row r="47">
@@ -3783,19 +3783,19 @@
         <v>15599</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>8575</v>
+        <v>8979</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>26265</v>
+        <v>26059</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.0433034629287597</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02380525369351899</v>
+        <v>0.02492639896425659</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.07291141559900792</v>
+        <v>0.07234042931193978</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>6</v>
@@ -3804,19 +3804,19 @@
         <v>8096</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2242</v>
+        <v>3096</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>16648</v>
+        <v>17431</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.03130485972654844</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.008669306954499705</v>
+        <v>0.01197025568061521</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.06437370490716778</v>
+        <v>0.06740249033104709</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>20</v>
@@ -3825,19 +3825,19 @@
         <v>23695</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>14632</v>
+        <v>15320</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>35619</v>
+        <v>39181</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.0382893490746115</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02364424475327426</v>
+        <v>0.02475530142850728</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.057558036208679</v>
+        <v>0.06331316996618171</v>
       </c>
     </row>
     <row r="48">
@@ -3854,19 +3854,19 @@
         <v>47137</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>35854</v>
+        <v>33787</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>62247</v>
+        <v>62723</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1308524646548207</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.0995298573335565</v>
+        <v>0.09379329371763459</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1727956719402045</v>
+        <v>0.1741184731227164</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>32</v>
@@ -3875,19 +3875,19 @@
         <v>35501</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>25096</v>
+        <v>25499</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>49292</v>
+        <v>48575</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1372789174242921</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.09704357315422971</v>
+        <v>0.09860121183930091</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1906039943034589</v>
+        <v>0.1878327400932019</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>75</v>
@@ -3896,19 +3896,19 @@
         <v>82639</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>65863</v>
+        <v>67474</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>102159</v>
+        <v>102121</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1335380244088508</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1064299463153429</v>
+        <v>0.109032551753339</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1650804201010729</v>
+        <v>0.1650196617864028</v>
       </c>
     </row>
     <row r="49">
@@ -3925,19 +3925,19 @@
         <v>128283</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>109750</v>
+        <v>109089</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>147349</v>
+        <v>148295</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3561122338230104</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3046643354780162</v>
+        <v>0.3028285306120412</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4090385952289427</v>
+        <v>0.4116640388437697</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>96</v>
@@ -3946,19 +3946,19 @@
         <v>104886</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>90301</v>
+        <v>89019</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>123529</v>
+        <v>123547</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.4055787288035602</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3491794751991515</v>
+        <v>0.3442247837352183</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4776679736980301</v>
+        <v>0.4777401820446595</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>216</v>
@@ -3967,19 +3967,19 @@
         <v>233169</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>205727</v>
+        <v>209269</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>257449</v>
+        <v>257722</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3767838598129771</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3324396592255869</v>
+        <v>0.338163142469544</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.41601824161037</v>
+        <v>0.4164591746466172</v>
       </c>
     </row>
     <row r="50">
@@ -3996,19 +3996,19 @@
         <v>164180</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>143053</v>
+        <v>144949</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>183301</v>
+        <v>185313</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.4557612377499519</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.397113200114769</v>
+        <v>0.4023757087873771</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.5088404101059187</v>
+        <v>0.5144274890741722</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>97</v>
@@ -4017,19 +4017,19 @@
         <v>106741</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>89741</v>
+        <v>91094</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>123105</v>
+        <v>123362</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.4127522435898434</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3470168390806094</v>
+        <v>0.3522482185810423</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4760306171650024</v>
+        <v>0.4770248596069255</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>250</v>
@@ -4038,19 +4038,19 @@
         <v>270921</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>245204</v>
+        <v>245802</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>296770</v>
+        <v>295676</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.4377881462294793</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3962307692396116</v>
+        <v>0.3971971905538874</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.4795579153994315</v>
+        <v>0.4777891940866037</v>
       </c>
     </row>
     <row r="51">
@@ -4142,19 +4142,19 @@
         <v>22549</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>14437</v>
+        <v>14609</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>33356</v>
+        <v>33455</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.01593885789886484</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01020476070016156</v>
+        <v>0.01032673467864048</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.02357773381296571</v>
+        <v>0.02364799393773465</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>17</v>
@@ -4163,19 +4163,19 @@
         <v>17738</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>10453</v>
+        <v>10646</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>28042</v>
+        <v>27531</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01883243032633461</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0110978353259833</v>
+        <v>0.01130232371761368</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.02977155984223001</v>
+        <v>0.02922970876236843</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>39</v>
@@ -4184,19 +4184,19 @@
         <v>40287</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>28724</v>
+        <v>28876</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>54156</v>
+        <v>55205</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01709536673690172</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01218884265112926</v>
+        <v>0.01225314473419472</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.02298039690086981</v>
+        <v>0.02342583912913921</v>
       </c>
     </row>
     <row r="53">
@@ -4213,19 +4213,19 @@
         <v>50441</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>36760</v>
+        <v>37817</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>67104</v>
+        <v>67375</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.03565491431665365</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.02598428351266607</v>
+        <v>0.02673106617455568</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.04743302653528583</v>
+        <v>0.04762437295598326</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>33</v>
@@ -4234,19 +4234,19 @@
         <v>39235</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>27202</v>
+        <v>27522</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>54892</v>
+        <v>55911</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.04165516191714037</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.02888011222594203</v>
+        <v>0.02922000358977165</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.0582788927053504</v>
+        <v>0.05936058999987642</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>77</v>
@@ -4255,19 +4255,19 @@
         <v>89676</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>71057</v>
+        <v>72113</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>110076</v>
+        <v>111685</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.03805310532597305</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.03015224307843346</v>
+        <v>0.03060038854818478</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.04670960428854208</v>
+        <v>0.04739218008848182</v>
       </c>
     </row>
     <row r="54">
@@ -4284,19 +4284,19 @@
         <v>194189</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>166802</v>
+        <v>169034</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>221337</v>
+        <v>222695</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1372642307106214</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1179054226805557</v>
+        <v>0.1194833014056484</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.1564538331515727</v>
+        <v>0.1574136019897097</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>143</v>
@@ -4305,19 +4305,19 @@
         <v>154624</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>132818</v>
+        <v>132048</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>179466</v>
+        <v>176737</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1641625298763872</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1410122969930223</v>
+        <v>0.1401941857572657</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1905377149953539</v>
+        <v>0.1876404760810586</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>326</v>
@@ -4326,19 +4326,19 @@
         <v>348813</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>312304</v>
+        <v>315229</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>383811</v>
+        <v>388122</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1480149969323504</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1325226749769643</v>
+        <v>0.1337641439283445</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1628661605829821</v>
+        <v>0.1646953959577329</v>
       </c>
     </row>
     <row r="55">
@@ -4355,19 +4355,19 @@
         <v>322453</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>291087</v>
+        <v>293454</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>356602</v>
+        <v>358678</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2279284122685862</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2057567678231056</v>
+        <v>0.2074300497351417</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2520669793596686</v>
+        <v>0.2535345904554395</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>224</v>
@@ -4376,19 +4376,19 @@
         <v>238277</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>213896</v>
+        <v>210878</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>269869</v>
+        <v>266163</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2529766244366204</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2270913852493702</v>
+        <v>0.2238877284566514</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2865174409991484</v>
+        <v>0.2825825768461335</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>534</v>
@@ -4397,19 +4397,19 @@
         <v>560730</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>524074</v>
+        <v>518485</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>605829</v>
+        <v>602612</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2379397320041304</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2223852137559897</v>
+        <v>0.2200136687302759</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2570769898735503</v>
+        <v>0.2557120213911562</v>
       </c>
     </row>
     <row r="56">
@@ -4426,19 +4426,19 @@
         <v>825079</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>782268</v>
+        <v>785798</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>863387</v>
+        <v>865450</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.5832135848052739</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5529518634546648</v>
+        <v>0.5554474234813469</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.6102916417832598</v>
+        <v>0.6117500433210259</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>452</v>
@@ -4447,19 +4447,19 @@
         <v>492020</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>461061</v>
+        <v>459204</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>528169</v>
+        <v>523102</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.5223732534435175</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.4895049174634137</v>
+        <v>0.4875332313694191</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.5607523976309641</v>
+        <v>0.5553726402327046</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1222</v>
@@ -4468,19 +4468,19 @@
         <v>1317099</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1268468</v>
+        <v>1264447</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1363115</v>
+        <v>1365089</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.5588967990006445</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.5382606269652208</v>
+        <v>0.5365543272318758</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.578423383669543</v>
+        <v>0.579260865908553</v>
       </c>
     </row>
     <row r="57">
@@ -4816,19 +4816,19 @@
         <v>7179</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2798</v>
+        <v>3073</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15077</v>
+        <v>14745</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05395601485539838</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02102618637128225</v>
+        <v>0.02309960118809802</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1133161981121727</v>
+        <v>0.1108251969744259</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4837,19 +4837,19 @@
         <v>3597</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9968</v>
+        <v>9997</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03594474900986777</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009531582022974903</v>
+        <v>0.009454218050351123</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09960734125288469</v>
+        <v>0.0998969733771319</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -4858,19 +4858,19 @@
         <v>10776</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4821</v>
+        <v>5123</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19952</v>
+        <v>20419</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04622446799512115</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02068023337433337</v>
+        <v>0.02197776594228798</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08558635086030099</v>
+        <v>0.08759025036525911</v>
       </c>
     </row>
     <row r="5">
@@ -4887,19 +4887,19 @@
         <v>14970</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8222</v>
+        <v>8447</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24941</v>
+        <v>24063</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1125136998794666</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06179370367102444</v>
+        <v>0.06348739027928922</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.187450856645146</v>
+        <v>0.180857866452469</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -4908,19 +4908,19 @@
         <v>6009</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1917</v>
+        <v>2465</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11272</v>
+        <v>12475</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06004726069220642</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01915730150649764</v>
+        <v>0.0246370957650575</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1126432456193389</v>
+        <v>0.1246584160728236</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -4929,19 +4929,19 @@
         <v>20979</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12946</v>
+        <v>13561</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>31771</v>
+        <v>32577</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0899918662311755</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05553409704952612</v>
+        <v>0.05817136001017967</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1362855377775592</v>
+        <v>0.1397426967943251</v>
       </c>
     </row>
     <row r="6">
@@ -4958,19 +4958,19 @@
         <v>24867</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16263</v>
+        <v>16001</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35397</v>
+        <v>35913</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1869000948066365</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1222321994043677</v>
+        <v>0.1202639527509627</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2660437190050389</v>
+        <v>0.2699187129395473</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -4979,19 +4979,19 @@
         <v>15675</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9705</v>
+        <v>9518</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24592</v>
+        <v>23258</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1566404574205044</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09698520264189814</v>
+        <v>0.09511309246734546</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2457499675069476</v>
+        <v>0.2324184953665357</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>38</v>
@@ -5000,19 +5000,19 @@
         <v>40542</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>29964</v>
+        <v>28920</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>53854</v>
+        <v>53360</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1739107909768931</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1285349909176984</v>
+        <v>0.1240566521918801</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2310147800408093</v>
+        <v>0.2288938086936843</v>
       </c>
     </row>
     <row r="7">
@@ -5029,19 +5029,19 @@
         <v>26841</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17263</v>
+        <v>17980</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37699</v>
+        <v>37946</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2017349486992359</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1297440384969878</v>
+        <v>0.1351366057635116</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2833438050722481</v>
+        <v>0.2851952072652159</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -5050,19 +5050,19 @@
         <v>19647</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13032</v>
+        <v>12842</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29006</v>
+        <v>29499</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1963317151285617</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1302301044811404</v>
+        <v>0.1283299113515154</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2898618541991121</v>
+        <v>0.2947880705492267</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -5071,19 +5071,19 @@
         <v>46488</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35109</v>
+        <v>35134</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61139</v>
+        <v>60323</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1994155473919115</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1506028927838191</v>
+        <v>0.1507131811627486</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.262262196437537</v>
+        <v>0.2587656824766759</v>
       </c>
     </row>
     <row r="8">
@@ -5100,19 +5100,19 @@
         <v>59194</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47453</v>
+        <v>46566</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>71753</v>
+        <v>71905</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4448952417592626</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3566549459023916</v>
+        <v>0.3499849278028985</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5392924376206364</v>
+        <v>0.5404351572725374</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>52</v>
@@ -5121,19 +5121,19 @@
         <v>55142</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>45280</v>
+        <v>43854</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64448</v>
+        <v>65076</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5510358177488598</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.452486792886795</v>
+        <v>0.4382378027570626</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.644027008590679</v>
+        <v>0.6503035936426724</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>106</v>
@@ -5142,19 +5142,19 @@
         <v>114335</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>97688</v>
+        <v>98145</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>127937</v>
+        <v>130368</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4904573274048987</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4190480225180199</v>
+        <v>0.4210047726437178</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5488047212598508</v>
+        <v>0.5592329897429278</v>
       </c>
     </row>
     <row r="9">
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6588</v>
+        <v>7728</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01263790081644681</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03868564891817006</v>
+        <v>0.0453780021629452</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -5267,19 +5267,19 @@
         <v>3098</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8164</v>
+        <v>8188</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02725010986592498</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008678190990375536</v>
+        <v>0.008581591231246015</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07181563978964903</v>
+        <v>0.07203098060846334</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -5288,19 +5288,19 @@
         <v>5250</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2049</v>
+        <v>2014</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11541</v>
+        <v>11986</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01848738464126506</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007216076202856638</v>
+        <v>0.007093167156719196</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04064114545723825</v>
+        <v>0.04220775161941846</v>
       </c>
     </row>
     <row r="11">
@@ -5317,19 +5317,19 @@
         <v>5156</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2025</v>
+        <v>2044</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11151</v>
+        <v>10601</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0302743661353396</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01189038527233525</v>
+        <v>0.01200239455355968</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06547828655152474</v>
+        <v>0.06225160180371494</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -5338,19 +5338,19 @@
         <v>6568</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2306</v>
+        <v>2353</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13097</v>
+        <v>13447</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05777806387275652</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02028206028307332</v>
+        <v>0.02069446491562779</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1152051452795338</v>
+        <v>0.1182912390202881</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -5359,19 +5359,19 @@
         <v>11724</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6175</v>
+        <v>6304</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19939</v>
+        <v>20878</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04128450392442743</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02174519221805861</v>
+        <v>0.02219951851974726</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07021308896368829</v>
+        <v>0.0735201315331587</v>
       </c>
     </row>
     <row r="12">
@@ -5388,19 +5388,19 @@
         <v>37836</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27334</v>
+        <v>27697</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>49779</v>
+        <v>50640</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2221794558372498</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1605078740107917</v>
+        <v>0.1626407749675187</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2923049755420758</v>
+        <v>0.2973603136290577</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -5409,19 +5409,19 @@
         <v>10192</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5023</v>
+        <v>5137</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17516</v>
+        <v>18146</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08965093678745994</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0441836397910879</v>
+        <v>0.04518555637629645</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1540796074832169</v>
+        <v>0.1596263304668326</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>45</v>
@@ -5430,19 +5430,19 @@
         <v>48028</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>36058</v>
+        <v>35624</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>61786</v>
+        <v>62222</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1691263256853411</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1269743848041113</v>
+        <v>0.1254484475205918</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2175748464957364</v>
+        <v>0.2191087669795708</v>
       </c>
     </row>
     <row r="13">
@@ -5459,19 +5459,19 @@
         <v>35672</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25913</v>
+        <v>25826</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47440</v>
+        <v>48007</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.20946877254001</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1521624221443188</v>
+        <v>0.1516514663402369</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2785728249591132</v>
+        <v>0.281902942015115</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -5480,19 +5480,19 @@
         <v>24775</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16900</v>
+        <v>16658</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35026</v>
+        <v>34593</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2179326203841762</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1486603851272565</v>
+        <v>0.1465311424467619</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3081114937439774</v>
+        <v>0.304298620263722</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -5501,19 +5501,19 @@
         <v>60446</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46983</v>
+        <v>47860</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>75589</v>
+        <v>74885</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2128569762600999</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1654482431686103</v>
+        <v>0.168533980163946</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2661811795179879</v>
+        <v>0.26370252257407</v>
       </c>
     </row>
     <row r="14">
@@ -5530,19 +5530,19 @@
         <v>89481</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>76401</v>
+        <v>75114</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104155</v>
+        <v>102857</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5254395046709538</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4486317609664716</v>
+        <v>0.4410790092271051</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6116052388523072</v>
+        <v>0.6039832695995853</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>66</v>
@@ -5551,19 +5551,19 @@
         <v>69048</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58246</v>
+        <v>58612</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>79199</v>
+        <v>78650</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6073882690896824</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5123714857894386</v>
+        <v>0.5155846375562155</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6966812688058809</v>
+        <v>0.691852927444471</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>147</v>
@@ -5572,19 +5572,19 @@
         <v>158529</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>141949</v>
+        <v>139492</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>176330</v>
+        <v>175193</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5582448094888666</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4998597083976766</v>
+        <v>0.4912089451784555</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6209298933620243</v>
+        <v>0.6169253940736398</v>
       </c>
     </row>
     <row r="15">
@@ -5676,19 +5676,19 @@
         <v>3377</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>868</v>
+        <v>833</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10103</v>
+        <v>9753</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0268898275960028</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006908580897178612</v>
+        <v>0.006634667585290086</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08044221041159175</v>
+        <v>0.07765594770664434</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5895</v>
+        <v>5781</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02251191153012572</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06990090009832294</v>
+        <v>0.0685542353462895</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -5718,19 +5718,19 @@
         <v>5276</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1829</v>
+        <v>1800</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12419</v>
+        <v>11802</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02513106089769077</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0087126159382051</v>
+        <v>0.00857617066741685</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05915908883796316</v>
+        <v>0.05622169541058607</v>
       </c>
     </row>
     <row r="17">
@@ -5747,19 +5747,19 @@
         <v>2650</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7110</v>
+        <v>7092</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02110196757993589</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006746157457004809</v>
+        <v>0.006778116492449368</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05661124154884214</v>
+        <v>0.05646938723160569</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -5768,19 +5768,19 @@
         <v>5350</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1882</v>
+        <v>1925</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12826</v>
+        <v>12090</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06343577979503738</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02231109015074075</v>
+        <v>0.0228309637647416</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1520858037978741</v>
+        <v>0.1433653332669556</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -5789,19 +5789,19 @@
         <v>8000</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3740</v>
+        <v>3614</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15943</v>
+        <v>15514</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03810898599146845</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01781531082764023</v>
+        <v>0.01721498406620179</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0759495785888174</v>
+        <v>0.07390495809978044</v>
       </c>
     </row>
     <row r="18">
@@ -5818,19 +5818,19 @@
         <v>22054</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14718</v>
+        <v>15173</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30047</v>
+        <v>32062</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1756073131567588</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1171883968367187</v>
+        <v>0.12081344382199</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2392471678349049</v>
+        <v>0.255290837351594</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -5839,19 +5839,19 @@
         <v>16769</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9475</v>
+        <v>10410</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23850</v>
+        <v>24843</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.19883902141169</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1123539112246749</v>
+        <v>0.1234347950875104</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2828090229550737</v>
+        <v>0.2945833504195234</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>40</v>
@@ -5860,19 +5860,19 @@
         <v>38823</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>28852</v>
+        <v>28625</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>49470</v>
+        <v>50114</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1849403278168944</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1374393672712486</v>
+        <v>0.1363598737323199</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2356612396628769</v>
+        <v>0.2387264414390474</v>
       </c>
     </row>
     <row r="19">
@@ -5889,19 +5889,19 @@
         <v>43756</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33870</v>
+        <v>34114</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55129</v>
+        <v>53758</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3484046838652498</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2696930111862637</v>
+        <v>0.2716281207440245</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4389633999064493</v>
+        <v>0.428046680764368</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -5910,19 +5910,19 @@
         <v>25626</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18839</v>
+        <v>17798</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33990</v>
+        <v>34088</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3038721997372661</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2233902155434697</v>
+        <v>0.2110473665908726</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4030432402562419</v>
+        <v>0.4042056451160372</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>73</v>
@@ -5931,19 +5931,19 @@
         <v>69382</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>56935</v>
+        <v>56495</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83704</v>
+        <v>84175</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3305143796888229</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2712190777830005</v>
+        <v>0.2691241086573327</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3987389260974517</v>
+        <v>0.4009800205958395</v>
       </c>
     </row>
     <row r="20">
@@ -5960,19 +5960,19 @@
         <v>53752</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>43251</v>
+        <v>42919</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>64504</v>
+        <v>64293</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4279962078020527</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3443827392765391</v>
+        <v>0.3417448332990956</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.513613929401976</v>
+        <v>0.5119348893921251</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -5981,19 +5981,19 @@
         <v>34690</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25647</v>
+        <v>26237</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43921</v>
+        <v>43423</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4113410875258808</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3041141202857952</v>
+        <v>0.3111101004040646</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5208057896336546</v>
+        <v>0.5148973995872134</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>91</v>
@@ -6002,19 +6002,19 @@
         <v>88441</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>73370</v>
+        <v>74739</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>101123</v>
+        <v>102332</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4213052456051235</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3495104854297555</v>
+        <v>0.3560339375475143</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4817161028222256</v>
+        <v>0.4874747446154143</v>
       </c>
     </row>
     <row r="21">
@@ -6106,19 +6106,19 @@
         <v>3020</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7966</v>
+        <v>7967</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02691962268083609</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008431325038868892</v>
+        <v>0.008481500345355244</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07101225500686681</v>
+        <v>0.07102105309698593</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -6127,19 +6127,19 @@
         <v>4733</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1131</v>
+        <v>1515</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11700</v>
+        <v>10994</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05781951194100163</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01381340083212114</v>
+        <v>0.01850835472325967</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1429244379561823</v>
+        <v>0.1343003675715432</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -6148,19 +6148,19 @@
         <v>7753</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3150</v>
+        <v>3048</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15423</v>
+        <v>15150</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03995529322183176</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01623349495264003</v>
+        <v>0.01570946110779792</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07948224714684939</v>
+        <v>0.07807553500529729</v>
       </c>
     </row>
     <row r="23">
@@ -6177,19 +6177,19 @@
         <v>3643</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>972</v>
+        <v>988</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9720</v>
+        <v>12077</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03247698758689266</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.00866901154590596</v>
+        <v>0.008809118561401721</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08664426316815894</v>
+        <v>0.1076612358111924</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -6211,19 +6211,19 @@
         <v>3643</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>10726</v>
+        <v>10650</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01877598993016284</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005101376402272716</v>
+        <v>0.005127255795242544</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05527896618408453</v>
+        <v>0.05488793877604867</v>
       </c>
     </row>
     <row r="24">
@@ -6240,19 +6240,19 @@
         <v>7068</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2958</v>
+        <v>3259</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14155</v>
+        <v>14928</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0630091151438454</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02636398163650757</v>
+        <v>0.02905504051855898</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1261847141892621</v>
+        <v>0.1330697353134466</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -6261,19 +6261,19 @@
         <v>7303</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3377</v>
+        <v>3489</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14563</v>
+        <v>14561</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08921652355983023</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04125284843565653</v>
+        <v>0.04262395240382833</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1779017832920155</v>
+        <v>0.1778807767716472</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -6282,19 +6282,19 @@
         <v>14372</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8309</v>
+        <v>8379</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23646</v>
+        <v>23576</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07406517877461408</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04281876149963917</v>
+        <v>0.04318416275369087</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1218639603228082</v>
+        <v>0.1215021167102252</v>
       </c>
     </row>
     <row r="25">
@@ -6311,19 +6311,19 @@
         <v>7879</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3120</v>
+        <v>3442</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15117</v>
+        <v>15709</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07023342139814422</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02781484153901794</v>
+        <v>0.03068495878173759</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1347563200614989</v>
+        <v>0.140031972858129</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -6332,19 +6332,19 @@
         <v>9399</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4968</v>
+        <v>4945</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17184</v>
+        <v>17218</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1148236038105118</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06068783447608312</v>
+        <v>0.06040438143122024</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2099199996779108</v>
+        <v>0.2103422378695674</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -6353,19 +6353,19 @@
         <v>17278</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9903</v>
+        <v>9809</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26945</v>
+        <v>27501</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08904458678441815</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05103438797741572</v>
+        <v>0.05054996437797793</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1388614573528449</v>
+        <v>0.1417311542591633</v>
       </c>
     </row>
     <row r="26">
@@ -6382,19 +6382,19 @@
         <v>90570</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>80671</v>
+        <v>80800</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>98143</v>
+        <v>97959</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8073608531902816</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7191220755385115</v>
+        <v>0.7202738788321467</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8748708095203727</v>
+        <v>0.8732272560850096</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>59</v>
@@ -6403,19 +6403,19 @@
         <v>60423</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>51018</v>
+        <v>51413</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>67873</v>
+        <v>67739</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7381403606886564</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6232410705594624</v>
+        <v>0.6280737999147963</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8291444953832436</v>
+        <v>0.8275127645703566</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>143</v>
@@ -6424,19 +6424,19 @@
         <v>150993</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>137790</v>
+        <v>136494</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>163130</v>
+        <v>161553</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7781589512889732</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7101144629975584</v>
+        <v>0.7034351050708674</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.84070698981954</v>
+        <v>0.8325819391456158</v>
       </c>
     </row>
     <row r="27">
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4865</v>
+        <v>5342</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01182432312172545</v>
@@ -6540,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06011814539333802</v>
+        <v>0.06601079749340032</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4833</v>
+        <v>5302</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007018359254134843</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03544383155891532</v>
+        <v>0.03888420975577151</v>
       </c>
     </row>
     <row r="29">
@@ -6604,19 +6604,19 @@
         <v>2632</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6875</v>
+        <v>7215</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0475010801716417</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01469590180444311</v>
+        <v>0.0145031298913093</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1240521703054376</v>
+        <v>0.1301981104021777</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -6625,19 +6625,19 @@
         <v>2632</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7177</v>
+        <v>7801</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01930668441874599</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006004476140646657</v>
+        <v>0.005983851749110717</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05263751561312035</v>
+        <v>0.05721305728698119</v>
       </c>
     </row>
     <row r="30">
@@ -6654,19 +6654,19 @@
         <v>20297</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13481</v>
+        <v>13275</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>29646</v>
+        <v>29129</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.25079684398976</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1665753911205839</v>
+        <v>0.1640302694477489</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3663159161517768</v>
+        <v>0.359926985991224</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>17</v>
@@ -6675,19 +6675,19 @@
         <v>16079</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10576</v>
+        <v>10257</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22695</v>
+        <v>23009</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2901407980722241</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1908405672532714</v>
+        <v>0.1850799119413354</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4095306882501549</v>
+        <v>0.415190795473242</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>36</v>
@@ -6696,19 +6696,19 @@
         <v>36376</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>26337</v>
+        <v>27695</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>46725</v>
+        <v>47930</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2667880867680505</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1931582426664794</v>
+        <v>0.2031235880329358</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3426887039324567</v>
+        <v>0.3515289926769262</v>
       </c>
     </row>
     <row r="31">
@@ -6725,19 +6725,19 @@
         <v>37685</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>28705</v>
+        <v>28862</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>46917</v>
+        <v>46664</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4656468292496157</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3546849247252369</v>
+        <v>0.3566306982082884</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5797285035074925</v>
+        <v>0.5765962363328312</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>25</v>
@@ -6746,19 +6746,19 @@
         <v>23229</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>17028</v>
+        <v>15932</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>31120</v>
+        <v>29740</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4191583747777811</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3072706125299822</v>
+        <v>0.287481122195877</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5615511494938784</v>
+        <v>0.536656948486163</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>63</v>
@@ -6767,19 +6767,19 @@
         <v>60914</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>49827</v>
+        <v>50119</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>71771</v>
+        <v>71680</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4467517237833871</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3654420371121365</v>
+        <v>0.3675791724189545</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.526383960694537</v>
+        <v>0.5257106009445423</v>
       </c>
     </row>
     <row r="32">
@@ -6796,19 +6796,19 @@
         <v>21991</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>15115</v>
+        <v>14649</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31850</v>
+        <v>30715</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2717320036388988</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1867691237607657</v>
+        <v>0.181003627399615</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.39355429463824</v>
+        <v>0.3795268824199861</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -6817,19 +6817,19 @@
         <v>13478</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8056</v>
+        <v>8243</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20125</v>
+        <v>20196</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2431997469783532</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1453675261298923</v>
+        <v>0.1487380726692726</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3631467433771666</v>
+        <v>0.3644319222497719</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>35</v>
@@ -6838,19 +6838,19 @@
         <v>35469</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>25164</v>
+        <v>25931</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>45978</v>
+        <v>45800</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2601351457756815</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1845564705608401</v>
+        <v>0.1901842037100923</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3372079619672255</v>
+        <v>0.3359064377843999</v>
       </c>
     </row>
     <row r="33">
@@ -6958,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7463</v>
+        <v>8267</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03074470560905282</v>
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0987592485785211</v>
+        <v>0.1093941038993662</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -6979,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7911</v>
+        <v>8534</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01269087694391484</v>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04321133528502621</v>
+        <v>0.04661642519206974</v>
       </c>
     </row>
     <row r="35">
@@ -7005,19 +7005,19 @@
         <v>12256</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6767</v>
+        <v>6693</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>20671</v>
+        <v>20469</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1140053339060556</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06294833933813297</v>
+        <v>0.0622628954897218</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1922834931574203</v>
+        <v>0.1904020884633857</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>13</v>
@@ -7026,19 +7026,19 @@
         <v>12064</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>7322</v>
+        <v>6459</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>19098</v>
+        <v>19412</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1596398637688313</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09688869685824385</v>
+        <v>0.0854765151523086</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2527229976458418</v>
+        <v>0.2568830769321931</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>25</v>
@@ -7047,19 +7047,19 @@
         <v>24320</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>15941</v>
+        <v>16006</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>34736</v>
+        <v>33512</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1328424699725452</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08707791029875794</v>
+        <v>0.08742797433324627</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1897430759741397</v>
+        <v>0.1830553620321199</v>
       </c>
     </row>
     <row r="36">
@@ -7076,19 +7076,19 @@
         <v>35296</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>26026</v>
+        <v>26459</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>46564</v>
+        <v>45437</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3283258534796297</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2420978011965404</v>
+        <v>0.2461299679598166</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4331426510067246</v>
+        <v>0.4226583421558833</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>22</v>
@@ -7097,19 +7097,19 @@
         <v>20824</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>13849</v>
+        <v>13783</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>29664</v>
+        <v>28246</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2755602852256297</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1832714144178166</v>
+        <v>0.1823868774606062</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3925458280513446</v>
+        <v>0.3737789042186866</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>56</v>
@@ -7118,19 +7118,19 @@
         <v>56120</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>44832</v>
+        <v>44702</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>68358</v>
+        <v>69725</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3065451494422465</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.244887681686727</v>
+        <v>0.2441786947954618</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3733966352002762</v>
+        <v>0.3808645563762305</v>
       </c>
     </row>
     <row r="37">
@@ -7147,19 +7147,19 @@
         <v>29527</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>20636</v>
+        <v>20984</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>39349</v>
+        <v>39860</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2746688102041891</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1919598999770683</v>
+        <v>0.1951961054728417</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3660284035736408</v>
+        <v>0.3707875316106231</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>27</v>
@@ -7168,19 +7168,19 @@
         <v>26792</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>19034</v>
+        <v>18706</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>36087</v>
+        <v>35293</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3545407328444959</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2518781554556556</v>
+        <v>0.2475378569600773</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4775389643425311</v>
+        <v>0.4670344421031634</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>55</v>
@@ -7189,19 +7189,19 @@
         <v>56320</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>44497</v>
+        <v>45149</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>68397</v>
+        <v>69488</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3076385434126135</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2430607724375712</v>
+        <v>0.2466204216527917</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3736118096159818</v>
+        <v>0.3795678357239479</v>
       </c>
     </row>
     <row r="38">
@@ -7218,19 +7218,19 @@
         <v>30423</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>20965</v>
+        <v>21130</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>40530</v>
+        <v>40756</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2830000024101256</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1950194294989216</v>
+        <v>0.1965585208427146</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3770134352963174</v>
+        <v>0.3791193140974058</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>13</v>
@@ -7239,19 +7239,19 @@
         <v>13566</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>7979</v>
+        <v>7595</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>20494</v>
+        <v>21458</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1795144125519902</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1055885914176116</v>
+        <v>0.1005105305994769</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.271200227763246</v>
+        <v>0.2839608580311563</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>42</v>
@@ -7260,19 +7260,19 @@
         <v>43989</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>32846</v>
+        <v>33205</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>55272</v>
+        <v>55991</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.24028296022868</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1794146681031095</v>
+        <v>0.1813802704550562</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3019147756414205</v>
+        <v>0.3058441465572447</v>
       </c>
     </row>
     <row r="39">
@@ -7364,19 +7364,19 @@
         <v>16618</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>9825</v>
+        <v>9888</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>26671</v>
+        <v>26209</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04630513060471646</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02737592761142134</v>
+        <v>0.0275527150021128</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07431756600273701</v>
+        <v>0.07303181237825276</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>10</v>
@@ -7385,19 +7385,19 @@
         <v>10696</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>5331</v>
+        <v>5365</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>18540</v>
+        <v>19276</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.03768293750461632</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0187795674206979</v>
+        <v>0.0189002385875594</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.06531773025585667</v>
+        <v>0.06791150944250769</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>25</v>
@@ -7406,19 +7406,19 @@
         <v>27314</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>18214</v>
+        <v>18454</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>40967</v>
+        <v>39482</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04249729613753181</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02833878351168653</v>
+        <v>0.02871283165639155</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.06373995718834269</v>
+        <v>0.06142914204720321</v>
       </c>
     </row>
     <row r="41">
@@ -7435,19 +7435,19 @@
         <v>35338</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>25254</v>
+        <v>24656</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>48463</v>
+        <v>48671</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.09846870652412135</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07036860998217528</v>
+        <v>0.06870492369468562</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1350415321629642</v>
+        <v>0.1356223882569871</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>37</v>
@@ -7456,19 +7456,19 @@
         <v>37376</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>26014</v>
+        <v>26430</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>49269</v>
+        <v>49494</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1316778910479114</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.09164794973896698</v>
+        <v>0.09311438989990603</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1735769578942886</v>
+        <v>0.174368250905288</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>68</v>
@@ -7477,19 +7477,19 @@
         <v>72714</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>56448</v>
+        <v>57321</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>90409</v>
+        <v>90314</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.113134937724083</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08782615452383991</v>
+        <v>0.08918477589356871</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1406657004478454</v>
+        <v>0.1405177736119307</v>
       </c>
     </row>
     <row r="42">
@@ -7506,19 +7506,19 @@
         <v>100334</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>83693</v>
+        <v>82110</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>119535</v>
+        <v>118307</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2795784312946487</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2332082454842771</v>
+        <v>0.2287990571046882</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3330837232452468</v>
+        <v>0.3296612987158003</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>66</v>
@@ -7527,19 +7527,19 @@
         <v>66909</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>54950</v>
+        <v>52569</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>82585</v>
+        <v>81845</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2357244851300579</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1935891533771482</v>
+        <v>0.185202208003795</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2909500839954897</v>
+        <v>0.2883430608959338</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>151</v>
@@ -7548,19 +7548,19 @@
         <v>167243</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>145956</v>
+        <v>145555</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>192609</v>
+        <v>190773</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.260211135087185</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2270904159448364</v>
+        <v>0.2264661698096734</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2996774486332181</v>
+        <v>0.2968209704893983</v>
       </c>
     </row>
     <row r="43">
@@ -7577,19 +7577,19 @@
         <v>81498</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>65610</v>
+        <v>65949</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>98082</v>
+        <v>99174</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2270931597243406</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1828220250826802</v>
+        <v>0.1837671244194572</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2733035132987511</v>
+        <v>0.2763469173228657</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>71</v>
@@ -7598,19 +7598,19 @@
         <v>74256</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>59883</v>
+        <v>61336</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>88283</v>
+        <v>91370</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2616055677520667</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2109694459337383</v>
+        <v>0.2160899740595993</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3110235771629211</v>
+        <v>0.3219004958393989</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>143</v>
@@ -7619,19 +7619,19 @@
         <v>155754</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>133896</v>
+        <v>134182</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>179693</v>
+        <v>181361</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.242334935837194</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2083265888291052</v>
+        <v>0.2087712019293689</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2795811853652419</v>
+        <v>0.2821763391837923</v>
       </c>
     </row>
     <row r="44">
@@ -7648,19 +7648,19 @@
         <v>125088</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>106388</v>
+        <v>106988</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>143247</v>
+        <v>144296</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3485545718521729</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2964474609986092</v>
+        <v>0.2981218395564341</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3991564733654959</v>
+        <v>0.4020783042528028</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>89</v>
@@ -7669,19 +7669,19 @@
         <v>94608</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>80226</v>
+        <v>79488</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>111888</v>
+        <v>110498</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3333091185653477</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2826381406082482</v>
+        <v>0.2800382341349384</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3941843021112325</v>
+        <v>0.389288240012981</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>198</v>
@@ -7690,19 +7690,19 @@
         <v>219696</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>196631</v>
+        <v>196500</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>245683</v>
+        <v>245196</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3418216952140062</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3059350053215197</v>
+        <v>0.3057320708398912</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3822544634320363</v>
+        <v>0.3814964667555908</v>
       </c>
     </row>
     <row r="45">
@@ -7794,19 +7794,19 @@
         <v>5336</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1998</v>
+        <v>2012</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>12553</v>
+        <v>12075</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01627240448076653</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.006092839311138579</v>
+        <v>0.006134950683922655</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03828073557760241</v>
+        <v>0.03682276426033194</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1</v>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>4700</v>
+        <v>4683</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.004885264446424634</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01981207813966164</v>
+        <v>0.01974222733988917</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>6</v>
@@ -7836,19 +7836,19 @@
         <v>6495</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2520</v>
+        <v>2736</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>13099</v>
+        <v>13495</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01149269678439671</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.004459023023744737</v>
+        <v>0.004841051981128786</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02317856097739116</v>
+        <v>0.02388010402958822</v>
       </c>
     </row>
     <row r="47">
@@ -7868,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4617</v>
+        <v>4623</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.002808175844206325</v>
@@ -7877,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01408089253132662</v>
+        <v>0.01409917129239696</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>4</v>
@@ -7886,19 +7886,19 @@
         <v>4097</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>10354</v>
+        <v>9522</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01727248419961339</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.004509276623965259</v>
+        <v>0.004557802020850581</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.04364755642467384</v>
+        <v>0.04014045284796081</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>5</v>
@@ -7907,19 +7907,19 @@
         <v>5018</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1996</v>
+        <v>1915</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>10910</v>
+        <v>11050</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.008879512963140865</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.003532711781314861</v>
+        <v>0.003388669439020571</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01930585224562584</v>
+        <v>0.01955322924940158</v>
       </c>
     </row>
     <row r="48">
@@ -7936,19 +7936,19 @@
         <v>37412</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>25936</v>
+        <v>26770</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>50063</v>
+        <v>50990</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1140898702844067</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.07909275083991013</v>
+        <v>0.08163642121138885</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1526725774418898</v>
+        <v>0.1554982924471649</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>31</v>
@@ -7957,19 +7957,19 @@
         <v>30969</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>21614</v>
+        <v>21333</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>42736</v>
+        <v>43428</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1305548357325729</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.09111782121924118</v>
+        <v>0.08993225883781807</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.180163981675923</v>
+        <v>0.1830788718294948</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>66</v>
@@ -7978,19 +7978,19 @@
         <v>68380</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>52862</v>
+        <v>55102</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>86098</v>
+        <v>84286</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1210009754289577</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.09354183182291316</v>
+        <v>0.09750531944988743</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1523531294731207</v>
+        <v>0.1491481469011152</v>
       </c>
     </row>
     <row r="49">
@@ -8007,19 +8007,19 @@
         <v>114027</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>97261</v>
+        <v>96624</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>133348</v>
+        <v>131816</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3477365162470011</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2966051897648509</v>
+        <v>0.2946634241768069</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4066578853072849</v>
+        <v>0.4019832047477674</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>85</v>
@@ -8028,19 +8028,19 @@
         <v>88307</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>73017</v>
+        <v>74414</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>103734</v>
+        <v>103771</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3722764864920176</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3078194801945769</v>
+        <v>0.3137093594228145</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4373155682517098</v>
+        <v>0.4374690969967082</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>196</v>
@@ -8049,19 +8049,19 @@
         <v>202334</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>178868</v>
+        <v>180894</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>225435</v>
+        <v>226969</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3580370732169735</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3165137068103672</v>
+        <v>0.3200984752608177</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3989161673143352</v>
+        <v>0.4016304653801016</v>
       </c>
     </row>
     <row r="50">
@@ -8078,19 +8078,19 @@
         <v>170217</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>151167</v>
+        <v>149742</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>187447</v>
+        <v>186920</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.5190930331436193</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4609984039748161</v>
+        <v>0.4566505839012596</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.5716368416736465</v>
+        <v>0.5700291087000461</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>107</v>
@@ -8099,19 +8099,19 @@
         <v>112676</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>96165</v>
+        <v>95868</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>129123</v>
+        <v>126388</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.4750109291293715</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.4054051450785153</v>
+        <v>0.4041524355871528</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.5443453538294338</v>
+        <v>0.532818548747457</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>269</v>
@@ -8120,19 +8120,19 @@
         <v>282893</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>259065</v>
+        <v>258301</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>307556</v>
+        <v>307952</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.5005897416065312</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.4584247362283291</v>
+        <v>0.4570729450880828</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.5442318187938191</v>
+        <v>0.5449323881947178</v>
       </c>
     </row>
     <row r="51">
@@ -8224,19 +8224,19 @@
         <v>38639</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>28050</v>
+        <v>27744</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>53584</v>
+        <v>51646</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.02728067793005616</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.0198046722463283</v>
+        <v>0.01958848319370792</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.03783290848465828</v>
+        <v>0.03646430079783511</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>25</v>
@@ -8245,19 +8245,19 @@
         <v>27505</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>19092</v>
+        <v>18520</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>39970</v>
+        <v>40247</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.02665223894615842</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.01850044274535438</v>
+        <v>0.01794637907547608</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.03873111534615729</v>
+        <v>0.03899958074308513</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>60</v>
@@ -8266,19 +8266,19 @@
         <v>66143</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>51153</v>
+        <v>50665</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>84812</v>
+        <v>82831</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.02701578693738887</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.02089307962286251</v>
+        <v>0.02069392655692343</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.0346408341708772</v>
+        <v>0.03383174912009992</v>
       </c>
     </row>
     <row r="53">
@@ -8295,19 +8295,19 @@
         <v>74934</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>59638</v>
+        <v>58512</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>94243</v>
+        <v>91900</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.05290674511910444</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.0421068623145618</v>
+        <v>0.04131190619408094</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.06653982304783235</v>
+        <v>0.06488567071713656</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>74</v>
@@ -8316,19 +8316,19 @@
         <v>74097</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>59332</v>
+        <v>56794</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>91114</v>
+        <v>91224</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.07180018771807985</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.05749345348820268</v>
+        <v>0.05503384883194985</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.08829061631969853</v>
+        <v>0.08839684666751242</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>142</v>
@@ -8337,19 +8337,19 @@
         <v>149030</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>128586</v>
+        <v>127671</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>173967</v>
+        <v>175213</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.06087045025703942</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.05252029064068171</v>
+        <v>0.05214642519952439</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.07105558224895735</v>
+        <v>0.07156479898360761</v>
       </c>
     </row>
     <row r="54">
@@ -8366,19 +8366,19 @@
         <v>285164</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>253793</v>
+        <v>254405</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>316949</v>
+        <v>318876</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2013394289105138</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.179189775840611</v>
+        <v>0.1796216339531924</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2237810136191038</v>
+        <v>0.2251410240717411</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>187</v>
@@ -8387,19 +8387,19 @@
         <v>184719</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>160655</v>
+        <v>161785</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>207588</v>
+        <v>211138</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1789946541946401</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1556763329599618</v>
+        <v>0.1567710219857943</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2011548860041766</v>
+        <v>0.2045944641264945</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>446</v>
@@ -8408,19 +8408,19 @@
         <v>469884</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>435365</v>
+        <v>433746</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>510383</v>
+        <v>511962</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.19192096553209</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1778218956858613</v>
+        <v>0.1771608784313075</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2084627090512849</v>
+        <v>0.2091075018317153</v>
       </c>
     </row>
     <row r="55">
@@ -8437,19 +8437,19 @@
         <v>376885</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>346236</v>
+        <v>343237</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>410233</v>
+        <v>408295</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2660984739555231</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2444590599343785</v>
+        <v>0.2423415879325866</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2896438960654345</v>
+        <v>0.2882755099729801</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>288</v>
@@ -8458,19 +8458,19 @@
         <v>292031</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>264440</v>
+        <v>264976</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>323222</v>
+        <v>323897</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2829805415589943</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2562445093644295</v>
+        <v>0.2567645275193556</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3132046878537135</v>
+        <v>0.3138588461056343</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>646</v>
@@ -8479,19 +8479,19 @@
         <v>668916</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>623556</v>
+        <v>626538</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>716474</v>
+        <v>715987</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2732143718554654</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2546875343163696</v>
+        <v>0.2559053016028491</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2926393953030247</v>
+        <v>0.2924403304021539</v>
       </c>
     </row>
     <row r="56">
@@ -8508,19 +8508,19 @@
         <v>640715</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>601168</v>
+        <v>600639</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>677189</v>
+        <v>680614</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.4523746740848025</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.4244529928994129</v>
+        <v>0.424078928907247</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.478126983082896</v>
+        <v>0.4805453311754296</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>434</v>
@@ -8529,19 +8529,19 @@
         <v>453631</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>422753</v>
+        <v>422109</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>486142</v>
+        <v>483113</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.4395723775821273</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.4096510688874815</v>
+        <v>0.409027313129413</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.4710757382559722</v>
+        <v>0.4681406295191926</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1031</v>
@@ -8550,19 +8550,19 @@
         <v>1094345</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1041431</v>
+        <v>1047960</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1144252</v>
+        <v>1144876</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.4469784254180164</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.425366089388932</v>
+        <v>0.4280328208152</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.4673624364613388</v>
+        <v>0.4676173867476507</v>
       </c>
     </row>
     <row r="57">
